--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1027.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1027.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.049210943774806</v>
+        <v>1.268868803977966</v>
       </c>
       <c r="B1">
-        <v>3.689296847727547</v>
+        <v>1.435236692428589</v>
       </c>
       <c r="C1">
-        <v>3.17907889107507</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.350022020095115</v>
+        <v>2.036584615707397</v>
       </c>
       <c r="E1">
-        <v>1.227594073232795</v>
+        <v>0.8921931385993958</v>
       </c>
     </row>
   </sheetData>
